--- a/Result/29-09-24/HKEXstock_29-09-24period60RS90.xlsx
+++ b/Result/29-09-24/HKEXstock_29-09-24period60RS90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelvinyue/Desktop/Coding project/StockAnalysis/Result/29-09-24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA4F9C6-B7F6-5946-8B94-3AB980B06B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBD58BD-4A5F-814D-9E43-A52768DE65D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,7 +768,7 @@
   <dimension ref="A1:AL34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
